--- a/outcome/appendix/data/forecast/Echinococcosis.xlsx
+++ b/outcome/appendix/data/forecast/Echinococcosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>365.136701694986</v>
+        <v>362.999738433701</v>
       </c>
       <c r="C2" t="n">
-        <v>254.518145401516</v>
+        <v>253.062345300717</v>
       </c>
       <c r="D2" t="n">
-        <v>195.960218917343</v>
+        <v>194.865004812347</v>
       </c>
       <c r="E2" t="n">
-        <v>475.755257988455</v>
+        <v>472.937131566685</v>
       </c>
       <c r="F2" t="n">
-        <v>534.313184472628</v>
+        <v>531.134472055054</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>286</v>
       </c>
       <c r="I2" t="n">
-        <v>79.1367016949855</v>
+        <v>76.9997384337008</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>268.720831208782</v>
+        <v>269.04154160639</v>
       </c>
       <c r="C3" t="n">
-        <v>179.930979757483</v>
+        <v>179.285186867225</v>
       </c>
       <c r="D3" t="n">
-        <v>132.928471606572</v>
+        <v>131.771042781314</v>
       </c>
       <c r="E3" t="n">
-        <v>357.510682660081</v>
+        <v>358.797896345555</v>
       </c>
       <c r="F3" t="n">
-        <v>404.513190810991</v>
+        <v>406.312040431466</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>91</v>
       </c>
       <c r="I3" t="n">
-        <v>177.720831208782</v>
+        <v>178.04154160639</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>408.760665422379</v>
+        <v>409.942341066601</v>
       </c>
       <c r="C4" t="n">
-        <v>263.236387982862</v>
+        <v>261.513641217876</v>
       </c>
       <c r="D4" t="n">
-        <v>186.200488894124</v>
+        <v>182.940233779579</v>
       </c>
       <c r="E4" t="n">
-        <v>554.284942861896</v>
+        <v>558.371040915325</v>
       </c>
       <c r="F4" t="n">
-        <v>631.320841950634</v>
+        <v>636.944448353622</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>249</v>
       </c>
       <c r="I4" t="n">
-        <v>159.760665422379</v>
+        <v>160.942341066601</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>358.622660074756</v>
+        <v>362.813586685841</v>
       </c>
       <c r="C5" t="n">
-        <v>222.302574068717</v>
+        <v>221.774343994748</v>
       </c>
       <c r="D5" t="n">
-        <v>150.139079605095</v>
+        <v>147.112678885167</v>
       </c>
       <c r="E5" t="n">
-        <v>494.942746080794</v>
+        <v>503.852829376934</v>
       </c>
       <c r="F5" t="n">
-        <v>567.106240544417</v>
+        <v>578.514494486515</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,10 +544,10 @@
         <v>362</v>
       </c>
       <c r="I5" t="n">
-        <v>-3.37733992524409</v>
+        <v>0.813586685841017</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>333.449202014842</v>
+        <v>323.010345126454</v>
       </c>
       <c r="C6" t="n">
-        <v>199.065958486605</v>
+        <v>189.296761233566</v>
       </c>
       <c r="D6" t="n">
-        <v>127.927766496878</v>
+        <v>118.513065641281</v>
       </c>
       <c r="E6" t="n">
-        <v>467.832445543079</v>
+        <v>456.723929019342</v>
       </c>
       <c r="F6" t="n">
-        <v>538.970637532806</v>
+        <v>527.507624611628</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>266</v>
       </c>
       <c r="I6" t="n">
-        <v>67.4492020148422</v>
+        <v>57.0103451264541</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>292.520336819163</v>
+        <v>291.413637295893</v>
       </c>
       <c r="C7" t="n">
-        <v>168.234919830423</v>
+        <v>163.776252021596</v>
       </c>
       <c r="D7" t="n">
-        <v>102.442194315426</v>
+        <v>96.2091016811469</v>
       </c>
       <c r="E7" t="n">
-        <v>416.805753807903</v>
+        <v>419.05102257019</v>
       </c>
       <c r="F7" t="n">
-        <v>482.5984793229</v>
+        <v>486.618172910639</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>264</v>
       </c>
       <c r="I7" t="n">
-        <v>28.5203368191631</v>
+        <v>27.4136372958931</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>309.510736376613</v>
+        <v>309.901608955191</v>
       </c>
       <c r="C8" t="n">
-        <v>171.50668955645</v>
+        <v>167.028919018091</v>
       </c>
       <c r="D8" t="n">
-        <v>98.4517600853572</v>
+        <v>91.3966855640859</v>
       </c>
       <c r="E8" t="n">
-        <v>447.514783196776</v>
+        <v>452.774298892292</v>
       </c>
       <c r="F8" t="n">
-        <v>520.569712667869</v>
+        <v>528.406532346297</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>283</v>
       </c>
       <c r="I8" t="n">
-        <v>26.510736376613</v>
+        <v>26.9016089551915</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>354.976236918079</v>
+        <v>351.006201766626</v>
       </c>
       <c r="C9" t="n">
-        <v>189.511337537438</v>
+        <v>181.398996394088</v>
       </c>
       <c r="D9" t="n">
-        <v>101.919510828571</v>
+        <v>91.6143653504321</v>
       </c>
       <c r="E9" t="n">
-        <v>520.44113629872</v>
+        <v>520.613407139164</v>
       </c>
       <c r="F9" t="n">
-        <v>608.032963007587</v>
+        <v>610.39803818282</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>283</v>
       </c>
       <c r="I9" t="n">
-        <v>71.9762369180789</v>
+        <v>68.006201766626</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>311.658757261501</v>
+        <v>309.933573031926</v>
       </c>
       <c r="C10" t="n">
-        <v>160.277443445865</v>
+        <v>153.52870988969</v>
       </c>
       <c r="D10" t="n">
-        <v>80.1410165883688</v>
+        <v>70.7329766552752</v>
       </c>
       <c r="E10" t="n">
-        <v>463.040071077136</v>
+        <v>466.338436174163</v>
       </c>
       <c r="F10" t="n">
-        <v>543.176497934632</v>
+        <v>549.134169408578</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>336</v>
       </c>
       <c r="I10" t="n">
-        <v>-24.3412427384995</v>
+        <v>-26.0664269680736</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>294.67075564936</v>
+        <v>292.717916194059</v>
       </c>
       <c r="C11" t="n">
-        <v>145.935462237922</v>
+        <v>138.915052829068</v>
       </c>
       <c r="D11" t="n">
-        <v>67.1997539713782</v>
+        <v>57.4967350733325</v>
       </c>
       <c r="E11" t="n">
-        <v>443.406049060798</v>
+        <v>446.52077955905</v>
       </c>
       <c r="F11" t="n">
-        <v>522.141757327342</v>
+        <v>527.939097314785</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>390</v>
       </c>
       <c r="I11" t="n">
-        <v>-95.3292443506398</v>
+        <v>-97.282083805941</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>401.571430878304</v>
+        <v>393.492089068998</v>
       </c>
       <c r="C12" t="n">
-        <v>191.443932165741</v>
+        <v>178.783000085694</v>
       </c>
       <c r="D12" t="n">
-        <v>80.2091535335792</v>
+        <v>65.1228740683899</v>
       </c>
       <c r="E12" t="n">
-        <v>611.698929590868</v>
+        <v>608.201178052302</v>
       </c>
       <c r="F12" t="n">
-        <v>722.93370822303</v>
+        <v>721.861304069607</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>403</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.42856912169555</v>
+        <v>-9.50791093100162</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>522.07396094091</v>
+        <v>513.533052050745</v>
       </c>
       <c r="C13" t="n">
-        <v>239.465516500572</v>
+        <v>223.200132657793</v>
       </c>
       <c r="D13" t="n">
-        <v>89.86164290237</v>
+        <v>69.5071690229794</v>
       </c>
       <c r="E13" t="n">
-        <v>804.682405381248</v>
+        <v>803.865971443697</v>
       </c>
       <c r="F13" t="n">
-        <v>954.28627897945</v>
+        <v>957.558935078511</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>412</v>
       </c>
       <c r="I13" t="n">
-        <v>110.07396094091</v>
+        <v>101.533052050745</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>365.13782425314</v>
+        <v>363.000657319742</v>
       </c>
       <c r="C14" t="n">
-        <v>161.035112306009</v>
+        <v>150.778758469524</v>
       </c>
       <c r="D14" t="n">
-        <v>52.9896631346035</v>
+        <v>38.4352713765159</v>
       </c>
       <c r="E14" t="n">
-        <v>569.24053620027</v>
+        <v>575.222556169959</v>
       </c>
       <c r="F14" t="n">
-        <v>677.285985371676</v>
+        <v>687.566043262967</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>378</v>
       </c>
       <c r="I14" t="n">
-        <v>-12.8621757468605</v>
+        <v>-14.9993426802585</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>268.721657350769</v>
+        <v>269.042222649627</v>
       </c>
       <c r="C15" t="n">
-        <v>113.871303240944</v>
+        <v>106.679295994302</v>
       </c>
       <c r="D15" t="n">
-        <v>31.8984773802021</v>
+        <v>20.7295544553315</v>
       </c>
       <c r="E15" t="n">
-        <v>423.572011460594</v>
+        <v>431.405149304953</v>
       </c>
       <c r="F15" t="n">
-        <v>505.544837321336</v>
+        <v>517.354890843923</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>224</v>
       </c>
       <c r="I15" t="n">
-        <v>44.7216573507689</v>
+        <v>45.0422226496273</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>408.761922095882</v>
+        <v>409.943378781659</v>
       </c>
       <c r="C16" t="n">
-        <v>166.290596801753</v>
+        <v>154.971090480501</v>
       </c>
       <c r="D16" t="n">
-        <v>37.9340306265003</v>
+        <v>19.9969142290078</v>
       </c>
       <c r="E16" t="n">
-        <v>651.233247390012</v>
+        <v>664.915667082817</v>
       </c>
       <c r="F16" t="n">
-        <v>779.589813565265</v>
+        <v>799.88984333431</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>430</v>
       </c>
       <c r="I16" t="n">
-        <v>-21.2380779041176</v>
+        <v>-20.056621218341</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>358.623762606464</v>
+        <v>362.814505100663</v>
       </c>
       <c r="C17" t="n">
-        <v>139.930009145457</v>
+        <v>130.569621256331</v>
       </c>
       <c r="D17" t="n">
-        <v>24.1605291701212</v>
+        <v>7.62660617664011</v>
       </c>
       <c r="E17" t="n">
-        <v>577.31751606747</v>
+        <v>595.059388944995</v>
       </c>
       <c r="F17" t="n">
-        <v>693.086996042806</v>
+        <v>718.002404024686</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>304</v>
       </c>
       <c r="I17" t="n">
-        <v>54.6237626064637</v>
+        <v>58.8145051006631</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>333.45022715452</v>
+        <v>323.011162784611</v>
       </c>
       <c r="C18" t="n">
-        <v>124.65644893329</v>
+        <v>110.480571749969</v>
       </c>
       <c r="D18" t="n">
-        <v>14.1276992812452</v>
+        <v>-2.02632711451218</v>
       </c>
       <c r="E18" t="n">
-        <v>542.24400537575</v>
+        <v>535.541753819253</v>
       </c>
       <c r="F18" t="n">
-        <v>652.772755027795</v>
+        <v>648.048652683735</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>265</v>
       </c>
       <c r="I18" t="n">
-        <v>68.4502271545198</v>
+        <v>58.0111627846112</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>292.521236129169</v>
+        <v>291.414374971145</v>
       </c>
       <c r="C19" t="n">
-        <v>104.6490811819</v>
+        <v>94.5536517940249</v>
       </c>
       <c r="D19" t="n">
-        <v>5.19556988639192</v>
+        <v>-9.65812009751829</v>
       </c>
       <c r="E19" t="n">
-        <v>480.393391076438</v>
+        <v>488.275098148264</v>
       </c>
       <c r="F19" t="n">
-        <v>579.846902371946</v>
+        <v>592.486870039808</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>238</v>
       </c>
       <c r="I19" t="n">
-        <v>54.5212361291689</v>
+        <v>53.4143749711447</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>309.51168792106</v>
+        <v>309.902393430309</v>
       </c>
       <c r="C20" t="n">
-        <v>105.821074458832</v>
+        <v>95.1866789554551</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.00622295222121</v>
+        <v>-18.4769543852145</v>
       </c>
       <c r="E20" t="n">
-        <v>513.202301383288</v>
+        <v>524.618107905163</v>
       </c>
       <c r="F20" t="n">
-        <v>621.029598794341</v>
+        <v>638.281741245832</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>306</v>
       </c>
       <c r="I20" t="n">
-        <v>3.51168792105989</v>
+        <v>3.90239343030896</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>354.977328239404</v>
+        <v>351.007090292608</v>
       </c>
       <c r="C21" t="n">
-        <v>115.81651226002</v>
+        <v>101.816720750692</v>
       </c>
       <c r="D21" t="n">
-        <v>-10.787576143206</v>
+        <v>-30.0966925964025</v>
       </c>
       <c r="E21" t="n">
-        <v>594.138144218789</v>
+        <v>600.197459834523</v>
       </c>
       <c r="F21" t="n">
-        <v>720.742232622015</v>
+        <v>732.110873181618</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>241</v>
       </c>
       <c r="I21" t="n">
-        <v>113.977328239404</v>
+        <v>110.007090292608</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>311.659715409716</v>
+        <v>309.934357587957</v>
       </c>
       <c r="C22" t="n">
-        <v>96.8748224978684</v>
+        <v>84.6757131343379</v>
       </c>
       <c r="D22" t="n">
-        <v>-16.8254316952469</v>
+        <v>-34.5690102088664</v>
       </c>
       <c r="E22" t="n">
-        <v>526.444608321564</v>
+        <v>535.193002041576</v>
       </c>
       <c r="F22" t="n">
-        <v>640.14486251468</v>
+        <v>654.43772538478</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>296</v>
       </c>
       <c r="I22" t="n">
-        <v>15.6597154097163</v>
+        <v>13.9343575879568</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>294.671661570507</v>
+        <v>292.718657170921</v>
       </c>
       <c r="C23" t="n">
-        <v>87.1032201985597</v>
+        <v>75.0937346852966</v>
       </c>
       <c r="D23" t="n">
-        <v>-22.7768753077166</v>
+        <v>-40.1099403493715</v>
       </c>
       <c r="E23" t="n">
-        <v>502.240102942454</v>
+        <v>510.343579656545</v>
       </c>
       <c r="F23" t="n">
-        <v>612.12019844873</v>
+        <v>625.547254691213</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>207</v>
       </c>
       <c r="I23" t="n">
-        <v>87.6716615705069</v>
+        <v>85.7186571709209</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>401.572665449582</v>
+        <v>393.49308514241</v>
       </c>
       <c r="C24" t="n">
-        <v>112.652312438623</v>
+        <v>94.4603991807468</v>
       </c>
       <c r="D24" t="n">
-        <v>-40.2928837227904</v>
+        <v>-63.837942685622</v>
       </c>
       <c r="E24" t="n">
-        <v>690.493018460541</v>
+        <v>692.525771104073</v>
       </c>
       <c r="F24" t="n">
-        <v>843.438214621954</v>
+        <v>850.824112970441</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>209</v>
       </c>
       <c r="I24" t="n">
-        <v>192.572665449582</v>
+        <v>184.49308514241</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>522.075565979185</v>
+        <v>513.534351992048</v>
       </c>
       <c r="C25" t="n">
-        <v>138.675846688703</v>
+        <v>114.899697300613</v>
       </c>
       <c r="D25" t="n">
-        <v>-64.2837048417114</v>
+        <v>-96.1247418679418</v>
       </c>
       <c r="E25" t="n">
-        <v>905.475285269667</v>
+        <v>912.169006683483</v>
       </c>
       <c r="F25" t="n">
-        <v>1108.43483680008</v>
+        <v>1123.19344585204</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>327</v>
       </c>
       <c r="I25" t="n">
-        <v>195.075565979185</v>
+        <v>186.534351992048</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>365.138946814745</v>
+        <v>363.001576208108</v>
       </c>
       <c r="C26" t="n">
-        <v>91.5998122705226</v>
+        <v>75.3518975032713</v>
       </c>
       <c r="D26" t="n">
-        <v>-53.2030586753754</v>
+        <v>-76.9206443124655</v>
       </c>
       <c r="E26" t="n">
-        <v>638.678081358967</v>
+        <v>650.651254912945</v>
       </c>
       <c r="F26" t="n">
-        <v>783.480952304865</v>
+        <v>802.923796728682</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>347</v>
       </c>
       <c r="I26" t="n">
-        <v>18.1389468147447</v>
+        <v>16.0015762081083</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>268.722483495296</v>
+        <v>269.042903694588</v>
       </c>
       <c r="C27" t="n">
-        <v>63.4861864188025</v>
+        <v>51.5406189339371</v>
       </c>
       <c r="D27" t="n">
-        <v>-45.1593464717641</v>
+        <v>-63.5981356106813</v>
       </c>
       <c r="E27" t="n">
-        <v>473.958780571789</v>
+        <v>486.54518845524</v>
       </c>
       <c r="F27" t="n">
-        <v>582.604313462355</v>
+        <v>601.683942999858</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>213</v>
       </c>
       <c r="I27" t="n">
-        <v>55.7224834952956</v>
+        <v>56.0429036945884</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>408.763178773249</v>
+        <v>409.944416499344</v>
       </c>
       <c r="C28" t="n">
-        <v>90.6525012335233</v>
+        <v>72.0255421442216</v>
       </c>
       <c r="D28" t="n">
-        <v>-77.7451193228516</v>
+        <v>-106.857904405242</v>
       </c>
       <c r="E28" t="n">
-        <v>726.873856312975</v>
+        <v>747.863290854467</v>
       </c>
       <c r="F28" t="n">
-        <v>895.271476869349</v>
+        <v>926.74673740393</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>338</v>
       </c>
       <c r="I28" t="n">
-        <v>70.763178773249</v>
+        <v>71.9444164993441</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>358.624865141561</v>
+        <v>362.81542351781</v>
       </c>
       <c r="C29" t="n">
-        <v>74.3847833577394</v>
+        <v>58.0313478609088</v>
       </c>
       <c r="D29" t="n">
-        <v>-76.0828268757068</v>
+        <v>-103.311595799594</v>
       </c>
       <c r="E29" t="n">
-        <v>642.864946925383</v>
+        <v>667.599499174711</v>
       </c>
       <c r="F29" t="n">
-        <v>793.332557158829</v>
+        <v>828.942442835214</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>283</v>
       </c>
       <c r="I29" t="n">
-        <v>75.624865141561</v>
+        <v>79.81542351781</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>333.451252297349</v>
+        <v>323.011980444838</v>
       </c>
       <c r="C30" t="n">
-        <v>64.4147657096515</v>
+        <v>46.6156896307976</v>
       </c>
       <c r="D30" t="n">
-        <v>-78.0045473879342</v>
+        <v>-99.6996684818823</v>
       </c>
       <c r="E30" t="n">
-        <v>602.487738885047</v>
+        <v>599.408271258879</v>
       </c>
       <c r="F30" t="n">
-        <v>744.907051982632</v>
+        <v>745.723629371558</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>235</v>
       </c>
       <c r="I30" t="n">
-        <v>98.4512522973491</v>
+        <v>88.0119804448381</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>292.522135441939</v>
+        <v>291.415112648264</v>
       </c>
       <c r="C31" t="n">
-        <v>52.3740675925496</v>
+        <v>37.5321568346884</v>
       </c>
       <c r="D31" t="n">
-        <v>-74.7526403815892</v>
+        <v>-96.8653616311489</v>
       </c>
       <c r="E31" t="n">
-        <v>532.670203291329</v>
+        <v>545.298068461839</v>
       </c>
       <c r="F31" t="n">
-        <v>659.796911265468</v>
+        <v>679.695586927676</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>250</v>
       </c>
       <c r="I31" t="n">
-        <v>42.5221354419395</v>
+        <v>41.4151126482636</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>309.512639468432</v>
+        <v>309.903177907412</v>
       </c>
       <c r="C32" t="n">
-        <v>51.0730642201121</v>
+        <v>35.1340221056986</v>
       </c>
       <c r="D32" t="n">
-        <v>-85.736582868777</v>
+        <v>-110.319982761881</v>
       </c>
       <c r="E32" t="n">
-        <v>567.952214716752</v>
+        <v>584.672333709126</v>
       </c>
       <c r="F32" t="n">
-        <v>704.761861805641</v>
+        <v>730.126338576706</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>316</v>
       </c>
       <c r="I32" t="n">
-        <v>-6.48736053156779</v>
+        <v>-6.09682209258773</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>354.978419564085</v>
+        <v>351.007978820839</v>
       </c>
       <c r="C33" t="n">
-        <v>53.6280201844539</v>
+        <v>34.4139449345628</v>
       </c>
       <c r="D33" t="n">
-        <v>-105.897245052535</v>
+        <v>-133.180812968951</v>
       </c>
       <c r="E33" t="n">
-        <v>656.328818943716</v>
+        <v>667.602012707115</v>
       </c>
       <c r="F33" t="n">
-        <v>815.854084180705</v>
+        <v>835.196770610629</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>267</v>
       </c>
       <c r="I33" t="n">
-        <v>87.9784195640847</v>
+        <v>84.0079788208388</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>311.660673560878</v>
+        <v>309.935142145973</v>
       </c>
       <c r="C34" t="n">
-        <v>42.7677981597581</v>
+        <v>25.6635179533303</v>
       </c>
       <c r="D34" t="n">
-        <v>-99.5754917678667</v>
+        <v>-124.820789822723</v>
       </c>
       <c r="E34" t="n">
-        <v>580.553548961997</v>
+        <v>594.206766338616</v>
       </c>
       <c r="F34" t="n">
-        <v>722.896838889622</v>
+        <v>744.69107411467</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>140</v>
       </c>
       <c r="I34" t="n">
-        <v>171.660673560878</v>
+        <v>169.935142145973</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>294.672567494439</v>
+        <v>292.719398149659</v>
       </c>
       <c r="C35" t="n">
-        <v>36.3803227602611</v>
+        <v>19.8006538156644</v>
       </c>
       <c r="D35" t="n">
-        <v>-100.351332265586</v>
+        <v>-124.673802390977</v>
       </c>
       <c r="E35" t="n">
-        <v>552.964812228616</v>
+        <v>565.638142483653</v>
       </c>
       <c r="F35" t="n">
-        <v>689.696467254464</v>
+        <v>710.112598690294</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>115</v>
       </c>
       <c r="I35" t="n">
-        <v>179.672567494439</v>
+        <v>177.719398149659</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>401.573900024654</v>
+        <v>393.494081218343</v>
       </c>
       <c r="C36" t="n">
-        <v>44.0818734351081</v>
+        <v>20.6821472534181</v>
       </c>
       <c r="D36" t="n">
-        <v>-145.16297402223</v>
+        <v>-176.672569288197</v>
       </c>
       <c r="E36" t="n">
-        <v>759.065926614201</v>
+        <v>766.306015183267</v>
       </c>
       <c r="F36" t="n">
-        <v>948.310774071539</v>
+        <v>963.660731724882</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>97</v>
       </c>
       <c r="I36" t="n">
-        <v>304.573900024654</v>
+        <v>296.494081218343</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>522.077171022395</v>
+        <v>513.535651936642</v>
       </c>
       <c r="C37" t="n">
-        <v>50.2021198531903</v>
+        <v>19.2816178354042</v>
       </c>
       <c r="D37" t="n">
-        <v>-199.593443223715</v>
+        <v>-242.360663199453</v>
       </c>
       <c r="E37" t="n">
-        <v>993.952222191599</v>
+        <v>1007.78968603788</v>
       </c>
       <c r="F37" t="n">
-        <v>1243.7477852685</v>
+        <v>1269.43196707274</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>144</v>
       </c>
       <c r="I37" t="n">
-        <v>378.077171022395</v>
+        <v>369.535651936642</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>365.140069379801</v>
+        <v>363.002495098801</v>
       </c>
       <c r="C38" t="n">
-        <v>30.1621904428216</v>
+        <v>8.20087353264512</v>
       </c>
       <c r="D38" t="n">
-        <v>-147.164387175637</v>
+        <v>-179.619759535614</v>
       </c>
       <c r="E38" t="n">
-        <v>700.11794831678</v>
+        <v>717.804116664957</v>
       </c>
       <c r="F38" t="n">
-        <v>877.444525935239</v>
+        <v>905.624749733216</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>240</v>
       </c>
       <c r="I38" t="n">
-        <v>125.140069379801</v>
+        <v>123.002495098801</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>268.723309642362</v>
+        <v>269.043584741273</v>
       </c>
       <c r="C39" t="n">
-        <v>18.5749171312387</v>
+        <v>2.07260836755449</v>
       </c>
       <c r="D39" t="n">
-        <v>-113.845642941332</v>
+        <v>-139.253289670974</v>
       </c>
       <c r="E39" t="n">
-        <v>518.871702153486</v>
+        <v>536.014561114992</v>
       </c>
       <c r="F39" t="n">
-        <v>651.292262226056</v>
+        <v>677.340459153521</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>324</v>
       </c>
       <c r="I39" t="n">
-        <v>-55.2766903576378</v>
+        <v>-54.9564152587265</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>408.764435454479</v>
+        <v>409.945454219656</v>
       </c>
       <c r="C40" t="n">
-        <v>22.7687327526052</v>
+        <v>-2.92242677731275</v>
       </c>
       <c r="D40" t="n">
-        <v>-181.56504938479</v>
+        <v>-221.481480820256</v>
       </c>
       <c r="E40" t="n">
-        <v>794.760138156353</v>
+        <v>822.813335216625</v>
       </c>
       <c r="F40" t="n">
-        <v>999.093920293748</v>
+        <v>1041.37238925957</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>374</v>
       </c>
       <c r="I40" t="n">
-        <v>34.7644354544789</v>
+        <v>35.945454219656</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>358.625967680048</v>
+        <v>362.816341937282</v>
       </c>
       <c r="C41" t="n">
-        <v>15.1828459255145</v>
+        <v>-7.94922450551661</v>
       </c>
       <c r="D41" t="n">
-        <v>-166.624960549936</v>
+        <v>-204.220659517021</v>
       </c>
       <c r="E41" t="n">
-        <v>702.069089434581</v>
+        <v>733.58190838008</v>
       </c>
       <c r="F41" t="n">
-        <v>883.876895910032</v>
+        <v>929.853343391584</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>347</v>
       </c>
       <c r="I41" t="n">
-        <v>11.6259676800479</v>
+        <v>15.8163419372818</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>333.45227744333</v>
+        <v>323.012798107135</v>
       </c>
       <c r="C42" t="n">
-        <v>9.67799215806195</v>
+        <v>-11.8362481413977</v>
       </c>
       <c r="D42" t="n">
-        <v>-161.717761235256</v>
+        <v>-189.094625854238</v>
       </c>
       <c r="E42" t="n">
-        <v>657.226562728598</v>
+        <v>657.861844355667</v>
       </c>
       <c r="F42" t="n">
-        <v>828.622316121916</v>
+        <v>835.120222068508</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>314</v>
       </c>
       <c r="I42" t="n">
-        <v>19.45227744333</v>
+        <v>9.0127981071347</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>292.523034757475</v>
+        <v>291.41585032725</v>
       </c>
       <c r="C43" t="n">
-        <v>4.61025128071566</v>
+        <v>-14.9592915715446</v>
       </c>
       <c r="D43" t="n">
-        <v>-147.801569788052</v>
+        <v>-177.14449482344</v>
       </c>
       <c r="E43" t="n">
-        <v>580.435818234234</v>
+        <v>597.790992226044</v>
       </c>
       <c r="F43" t="n">
-        <v>732.847639303001</v>
+        <v>759.97619547794</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>252</v>
       </c>
       <c r="I43" t="n">
-        <v>40.5230347574749</v>
+        <v>39.4158503272499</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>309.51359101873</v>
+        <v>309.903962386501</v>
       </c>
       <c r="C44" t="n">
-        <v>0.787076223008967</v>
+        <v>-20.4483883112063</v>
       </c>
       <c r="D44" t="n">
-        <v>-162.642868651349</v>
+        <v>-195.326359188974</v>
       </c>
       <c r="E44" t="n">
-        <v>618.240105814451</v>
+        <v>640.256313084209</v>
       </c>
       <c r="F44" t="n">
-        <v>781.670050688808</v>
+        <v>815.134283961977</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>342</v>
       </c>
       <c r="I44" t="n">
-        <v>-32.4864089812701</v>
+        <v>-32.0960376134987</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>354.97951089212</v>
+        <v>351.008867351319</v>
       </c>
       <c r="C45" t="n">
-        <v>-3.77397984850307</v>
+        <v>-28.289994646847</v>
       </c>
       <c r="D45" t="n">
-        <v>-193.686606089947</v>
+        <v>-229.078683458638</v>
       </c>
       <c r="E45" t="n">
-        <v>713.733001632744</v>
+        <v>730.307729349485</v>
       </c>
       <c r="F45" t="n">
-        <v>903.645627874188</v>
+        <v>931.096418161276</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,10 +1824,10 @@
         <v>352</v>
       </c>
       <c r="I45" t="n">
-        <v>2.97951089212035</v>
+        <v>-0.991132648680889</v>
       </c>
       <c r="J45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>311.661631714985</v>
+        <v>309.935926705975</v>
       </c>
       <c r="C46" t="n">
-        <v>-7.40698324545389</v>
+        <v>-29.4985166225655</v>
       </c>
       <c r="D46" t="n">
-        <v>-176.311705240666</v>
+        <v>-209.184256923646</v>
       </c>
       <c r="E46" t="n">
-        <v>630.730246675424</v>
+        <v>649.370370034517</v>
       </c>
       <c r="F46" t="n">
-        <v>799.634968670636</v>
+        <v>829.056110335597</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>367</v>
       </c>
       <c r="I46" t="n">
-        <v>-55.3383682850151</v>
+        <v>-57.0640732940245</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>294.673473421156</v>
+        <v>292.720139130272</v>
       </c>
       <c r="C47" t="n">
-        <v>-10.8627085273972</v>
+        <v>-32.1189842502135</v>
       </c>
       <c r="D47" t="n">
-        <v>-172.603793208815</v>
+        <v>-204.078428881119</v>
       </c>
       <c r="E47" t="n">
-        <v>600.209655369709</v>
+        <v>617.559262510757</v>
       </c>
       <c r="F47" t="n">
-        <v>761.950740051126</v>
+        <v>789.518707141663</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>311</v>
       </c>
       <c r="I47" t="n">
-        <v>-16.3265265788443</v>
+        <v>-18.2798608697282</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>401.575134603523</v>
+        <v>393.495077296797</v>
       </c>
       <c r="C48" t="n">
-        <v>-20.0492520375532</v>
+        <v>-48.8911396813041</v>
       </c>
       <c r="D48" t="n">
-        <v>-243.243720164237</v>
+        <v>-283.076256893364</v>
       </c>
       <c r="E48" t="n">
-        <v>823.199521244598</v>
+        <v>835.881294274898</v>
       </c>
       <c r="F48" t="n">
-        <v>1046.39398937128</v>
+        <v>1070.06641148696</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>387</v>
       </c>
       <c r="I48" t="n">
-        <v>14.5751346035225</v>
+        <v>6.49507729679669</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>522.078776070539</v>
+        <v>513.536951884526</v>
       </c>
       <c r="C49" t="n">
-        <v>-32.8688290362162</v>
+        <v>-71.2514664562692</v>
       </c>
       <c r="D49" t="n">
-        <v>-326.640345780623</v>
+        <v>-380.819755515721</v>
       </c>
       <c r="E49" t="n">
-        <v>1077.02638117729</v>
+        <v>1098.32537022532</v>
       </c>
       <c r="F49" t="n">
-        <v>1370.7978979217</v>
+        <v>1407.89365928477</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>354</v>
       </c>
       <c r="I49" t="n">
-        <v>168.078776070539</v>
+        <v>159.536951884526</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
